--- a/cheatsheets/go.xlsx
+++ b/cheatsheets/go.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="14580" windowWidth="20480" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="30720" yWindow="14600" windowWidth="20480" windowHeight="14140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Snippet</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>fmt.Sprintf("$1", $2)</t>
+  </si>
+  <si>
+    <t>Golang</t>
   </si>
 </sst>
 </file>
@@ -135,9 +138,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,11 +228,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:B10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:B11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A2:B11"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Snippet" dataDxfId="3"/>
-    <tableColumn id="2" name="Explanation" dataDxfId="2"/>
+    <tableColumn id="1" name="Snippet" dataDxfId="1"/>
+    <tableColumn id="2" name="Explanation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -495,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="B11" sqref="A3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -509,86 +515,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
